--- a/biology/Biochimie/1-Aminocyclopropane-1-carboxylate_synthase/1-Aminocyclopropane-1-carboxylate_synthase.xlsx
+++ b/biology/Biochimie/1-Aminocyclopropane-1-carboxylate_synthase/1-Aminocyclopropane-1-carboxylate_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 1-aminocyclopropane-1-carboxylate synthase, ACC synthase, est une lyase qui catalyse la réaction :
 S-adénosyl-L-méthionine  
         ⇌
     {\displaystyle \rightleftharpoons }
   1-aminocyclopropane-1-carboxylate + 5'-méthylthioadénosine.
-Cette enzyme intervient dans la biosynthèse de l'éthylène chez les plantes où l'éthylène agit comme phytohormone. Comme les autres enzymes qui utilisent le phosphate de pyridoxal comme cofacteur, elle agit à travers la formation d'un zwitterion quinonoïde. Elle constitue l'étape limitante de la production d'éthylène par les plantes ; dans la mesure où son activation intervient dans le processus de mûrissement des fruits et donc bien souvent à leur détérioration, elle fait l'objet de recherches afin d'optimiser la production fruitière en limitant les pertes[1],[2].
+Cette enzyme intervient dans la biosynthèse de l'éthylène chez les plantes où l'éthylène agit comme phytohormone. Comme les autres enzymes qui utilisent le phosphate de pyridoxal comme cofacteur, elle agit à travers la formation d'un zwitterion quinonoïde. Elle constitue l'étape limitante de la production d'éthylène par les plantes ; dans la mesure où son activation intervient dans le processus de mûrissement des fruits et donc bien souvent à leur détérioration, elle fait l'objet de recherches afin d'optimiser la production fruitière en limitant les pertes,.
 </t>
         </is>
       </c>
